--- a/result.xlsx
+++ b/result.xlsx
@@ -436,42 +436,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>食品</t>
+          <t>主成分1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>衣着</t>
+          <t>主成分2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>居住</t>
+          <t>主成分3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>家庭设备</t>
+          <t>主成分4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>交通通讯</t>
+          <t>主成分5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>文教娱乐</t>
+          <t>主成分6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>医疗保健</t>
+          <t>主成分7</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>主成分8</t>
         </is>
       </c>
     </row>
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.32672</v>
+        <v>293626.21428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.46853</v>
+        <v>22084.53861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16191</v>
+        <v>4388.72807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10328</v>
+        <v>1690.51144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07541</v>
+        <v>1068.92562</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06948</v>
+        <v>846.52523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04042</v>
+        <v>332.42286</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02091</v>
+        <v>96.15325</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8863</v>
+        <v>0.90588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05668</v>
+        <v>0.06813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01959</v>
+        <v>0.01354</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01249</v>
+        <v>0.00522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00912</v>
+        <v>0.0033</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.00261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00489</v>
+        <v>0.00103</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00253</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4">
@@ -545,50 +545,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.34195964 0.32552082 0.36027407 0.36481328 0.36820444 0.36104249
- 0.35616485 0.34847393]</t>
+          <t>[0.74861056 0.11192103 0.42707032 0.14889384 0.27345438 0.33051747
+ 0.18510759 0.06491195]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[ 0.54489338 -0.6146589  -0.1159366   0.1161217  -0.03511683 -0.07447677
- -0.2942453   0.45276906]</t>
+          <t>[ 0.64758691 -0.21091369 -0.54090324 -0.06132655 -0.22800671 -0.32204197
+ -0.28933001  0.01998484]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[ 0.27971112  0.69261752 -0.20300635 -0.07529063 -0.02685373 -0.42105088
- -0.39941056  0.24005965]</t>
+          <t>[-0.0480592   0.06567324 -0.65705632  0.06953267  0.11859357  0.71789928
+  0.1643404  -0.01918238]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.21272181 -0.13428524  0.66077514 -0.3063304   0.15219547 -0.5398042
-  0.07518802  0.29334201]</t>
+          <t>[ 0.0410781   0.79104221 -0.25696452 -0.03770502  0.33332804 -0.39799533
+  0.18613413  0.03096131]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.15669078 -0.01859425 -0.46750298 -0.58008163  0.42477482  0.18870968
-  0.21592959  0.39670888]</t>
+          <t>[-0.05716478 -0.18339123 -0.00692742 -0.36532308  0.73824629  0.04252564
+ -0.52996255  0.04375598]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[ 0.16519501 -0.01015345  0.30210651 -0.31310165  0.44330833  0.33730371
- -0.59211639 -0.34986946]</t>
+          <t>[ 0.00246539  0.5034012   0.13824556  0.13139584 -0.32786449  0.28152838
+ -0.71171583 -0.13004491]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[ 0.63160129 -0.02274338 -0.02282109 -0.35335024  0.00098997 -0.24269596
-  0.47335084 -0.43843133]</t>
+          <t>[ 0.10687555  0.13922634  0.08855692 -0.88718383 -0.2645536   0.15877233
+  0.17687102 -0.2185762 ]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.10910703 -0.13233662 -0.26187355  0.44106268  0.67996383 -0.43259987
-  0.00978977 -0.24058122]</t>
+          <t>[ 0.03898778 -0.08061804 -0.01669456  0.17318273  0.15991342 -0.08361935
+  0.04106779 -0.96304655]</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="page_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="主成分及对应的解释比" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="系数矩阵" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,28 +483,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293626.21428</v>
+        <v>7.32672</v>
       </c>
       <c r="C2" t="n">
-        <v>22084.53861</v>
+        <v>0.46853</v>
       </c>
       <c r="D2" t="n">
-        <v>4388.72807</v>
+        <v>0.16191</v>
       </c>
       <c r="E2" t="n">
-        <v>1690.51144</v>
+        <v>0.10328</v>
       </c>
       <c r="F2" t="n">
-        <v>1068.92562</v>
+        <v>0.07541</v>
       </c>
       <c r="G2" t="n">
-        <v>846.52523</v>
+        <v>0.06948</v>
       </c>
       <c r="H2" t="n">
-        <v>332.42286</v>
+        <v>0.04042</v>
       </c>
       <c r="I2" t="n">
-        <v>96.15325</v>
+        <v>0.02091</v>
       </c>
     </row>
     <row r="3">
@@ -513,83 +514,305 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.90588</v>
+        <v>0.8863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06813</v>
+        <v>0.05668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01354</v>
+        <v>0.01959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00522</v>
+        <v>0.01249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0033</v>
+        <v>0.00912</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00261</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00103</v>
+        <v>0.00489</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003</v>
+        <v>0.00253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.34196</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.32552</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36027</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.36481</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3682</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.36104</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.35616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.34847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.54489</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.61466</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.11594</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.11612</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.03512</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.07448</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.29425</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.45277</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>系数矩阵</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[0.74861056 0.11192103 0.42707032 0.14889384 0.27345438 0.33051747
- 0.18510759 0.06491195]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[ 0.64758691 -0.21091369 -0.54090324 -0.06132655 -0.22800671 -0.32204197
- -0.28933001  0.01998484]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[-0.0480592   0.06567324 -0.65705632  0.06953267  0.11859357  0.71789928
-  0.1643404  -0.01918238]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[ 0.0410781   0.79104221 -0.25696452 -0.03770502  0.33332804 -0.39799533
-  0.18613413  0.03096131]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[-0.05716478 -0.18339123 -0.00692742 -0.36532308  0.73824629  0.04252564
- -0.52996255  0.04375598]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[ 0.00246539  0.5034012   0.13824556  0.13139584 -0.32786449  0.28152838
- -0.71171583 -0.13004491]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[ 0.10687555  0.13922634  0.08855692 -0.88718383 -0.2645536   0.15877233
-  0.17687102 -0.2185762 ]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[ 0.03898778 -0.08061804 -0.01669456  0.17318273  0.15991342 -0.08361935
-  0.04106779 -0.96304655]</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.27971</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.69262</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.20301</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.07529</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.02685</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.42105</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.39941</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.24006</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.21272</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.13429</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66078</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.30633</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.5397999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07519000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.29334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.15669</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.01859</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4675</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.58008</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.42477</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.18871</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.21593</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.39671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1652</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.01015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.30211</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3131</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.44331</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.59212</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.34987</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6316000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.02274</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.02282</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.35335</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2427</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.47335</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.43843</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.10911</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.13234</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.26187</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.44106</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.67996</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.4326</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00979</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.24058</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,38 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="主成分及对应的解释比" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="系数矩阵" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="主成分及对应的解释比" sheetId="1" r:id="rId1"/>
+    <sheet name="系数矩阵" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>主成分1</t>
+  </si>
+  <si>
+    <t>主成分2</t>
+  </si>
+  <si>
+    <t>主成分3</t>
+  </si>
+  <si>
+    <t>主成分4</t>
+  </si>
+  <si>
+    <t>主成分5</t>
+  </si>
+  <si>
+    <t>主成分6</t>
+  </si>
+  <si>
+    <t>主成分7</t>
+  </si>
+  <si>
+    <t>主成分8</t>
+  </si>
+  <si>
+    <t>特征值</t>
+  </si>
+  <si>
+    <t>解释方差比</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,93 +85,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -421,401 +401,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>主成分1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>主成分2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>主成分3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>主成分4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>主成分5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>主成分6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>主成分7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>主成分8</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>特征值</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>7.32672</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.46853</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.16191</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.10328</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.07541</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.06948</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.04042</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.02091</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>解释方差比</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0.8863</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.05668</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.01959</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.01249</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.00912</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.008399999999999999</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.00489</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.00253</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.34196</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.32552</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.36027</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.36481</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.3682</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.36104</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.35616</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.34847</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.54489</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-0.61466</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-0.11594</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.11612</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-0.03512</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-0.07448</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-0.29425</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.45277</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.27971</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.69262</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-0.20301</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-0.07529</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-0.02685</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-0.42105</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-0.39941</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.24006</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-0.21272</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>-0.13429</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.66078</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-0.30633</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.1522</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-0.5397999999999999</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.07519000000000001</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.29334</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-0.15669</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-0.01859</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-0.4675</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-0.58008</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.42477</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.18871</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.21593</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.39671</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.1652</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-0.01015</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.30211</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-0.3131</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.44331</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.3373</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>-0.59212</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-0.34987</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.6316000000000001</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-0.02274</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-0.02282</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-0.35335</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.00099</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-0.2427</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.47335</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-0.43843</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-0.10911</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>-0.13234</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-0.26187</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.44106</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.67996</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-0.4326</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.00979</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-0.24058</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>